--- a/inputs/slope/input_template_lface5.xlsx
+++ b/inputs/slope/input_template_lface5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jones/CursorProjects/xslope/inputs/slope/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB7E978-821D-2548-87F2-A3F1517ED9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2616612-3379-384D-B01E-B8195039E7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7040" yWindow="780" windowWidth="29340" windowHeight="17300" activeTab="9" xr2:uid="{BA54C293-CE08-6E4C-9212-B3317DAA148E}"/>
+    <workbookView xWindow="3060" yWindow="880" windowWidth="29340" windowHeight="17300" activeTab="3" xr2:uid="{BA54C293-CE08-6E4C-9212-B3317DAA148E}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -1000,42 +1000,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -1075,6 +1040,13 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5677,7 +5649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847CAF5A-5624-4041-9578-842C28E166A5}">
   <dimension ref="B2:I23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -6428,16 +6400,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="M22:N22"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="M22:N22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6447,8 +6419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA88A0E-2BF5-FE49-9603-08BE4D91829B}">
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7113,62 +7085,47 @@
     <mergeCell ref="L19:Q19"/>
     <mergeCell ref="L2:Q2"/>
   </mergeCells>
-  <conditionalFormatting sqref="E9:F15">
-    <cfRule type="expression" dxfId="12" priority="7">
-      <formula>$D9="cp"</formula>
+  <conditionalFormatting sqref="E4:F15">
+    <cfRule type="expression" dxfId="8" priority="3">
+      <formula>$D4="cp"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:J15">
-    <cfRule type="expression" dxfId="11" priority="14">
-      <formula>$D9="mc"</formula>
+  <conditionalFormatting sqref="G4:H7">
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>$D4="mc"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:J15">
+    <cfRule type="expression" dxfId="6" priority="5">
+      <formula>$D8="mc"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:J7">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>$D4="cp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:N15">
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="4" priority="12">
       <formula>$D4="cp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:O15">
-    <cfRule type="expression" dxfId="8" priority="13">
+    <cfRule type="expression" dxfId="3" priority="13">
       <formula>$D4="mc"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:Q7">
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="2" priority="9">
       <formula>$D4="cp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:Q15">
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="1" priority="10">
       <formula>$D8="mc"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R7:V15">
-    <cfRule type="expression" dxfId="5" priority="8">
-      <formula>$D7="cp"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:F8">
-    <cfRule type="expression" dxfId="4" priority="3">
-      <formula>$D4="cp"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:H7">
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>$D4="mc"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8:J8">
-    <cfRule type="expression" dxfId="2" priority="5">
-      <formula>$D8="mc"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4:J7">
-    <cfRule type="expression" dxfId="1" priority="4">
-      <formula>$D4="cp"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R4:V6">
+  <conditionalFormatting sqref="R4:V15">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$D4="cp"</formula>
     </cfRule>

--- a/inputs/slope/input_template_lface5.xlsx
+++ b/inputs/slope/input_template_lface5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jones/CursorProjects/xslope/inputs/slope/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2616612-3379-384D-B01E-B8195039E7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513A1566-8232-BC4B-AB3F-541A784F41AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="880" windowWidth="29340" windowHeight="17300" activeTab="3" xr2:uid="{BA54C293-CE08-6E4C-9212-B3317DAA148E}"/>
+    <workbookView xWindow="3060" yWindow="880" windowWidth="29340" windowHeight="17300" activeTab="9" xr2:uid="{BA54C293-CE08-6E4C-9212-B3317DAA148E}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -5649,8 +5649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847CAF5A-5624-4041-9578-842C28E166A5}">
   <dimension ref="B2:I23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5679,7 +5679,7 @@
         <v>111</v>
       </c>
       <c r="C3" s="31">
-        <v>302</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>111</v>
@@ -6400,16 +6400,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="M4:N4"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="M22:N22"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="M4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6419,7 +6419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA88A0E-2BF5-FE49-9603-08BE4D91829B}">
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="G1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>

--- a/inputs/slope/input_template_lface5.xlsx
+++ b/inputs/slope/input_template_lface5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jones/CursorProjects/xslope/inputs/slope/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/njones/cursor_projects/xslope/inputs/slope/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513A1566-8232-BC4B-AB3F-541A784F41AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853A6379-7233-4F4A-A974-612706DFFCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="880" windowWidth="29340" windowHeight="17300" activeTab="9" xr2:uid="{BA54C293-CE08-6E4C-9212-B3317DAA148E}"/>
+    <workbookView xWindow="36760" yWindow="4000" windowWidth="29340" windowHeight="17300" activeTab="3" xr2:uid="{BA54C293-CE08-6E4C-9212-B3317DAA148E}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <definedName name="solution2">mat!$L$21</definedName>
     <definedName name="version">main!$D$5</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,6 +47,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -4337,7 +4338,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4345,6 +4345,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5649,7 +5650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847CAF5A-5624-4041-9578-842C28E166A5}">
   <dimension ref="B2:I23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -6400,16 +6401,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="M22:N22"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="M22:N22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6419,7 +6420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA88A0E-2BF5-FE49-9603-08BE4D91829B}">
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
